--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwecko/Scripts/Assymble_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533A8EA3-F90D-734A-8700-79454D15F3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40167EC0-016D-314B-B1C3-BFCC7834F11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4180" yWindow="5060" windowWidth="27560" windowHeight="14960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>TIPO</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>AAAAA</t>
+  </si>
+  <si>
+    <t>objetiva03</t>
+  </si>
+  <si>
+    <t>Considere as afirmações abaixo e assinale  a alternativa que indique as afirmativa(s) INCORRETA(S):</t>
+  </si>
+  <si>
+    <t>EEEE</t>
   </si>
 </sst>
 </file>
@@ -544,7 +553,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -572,7 +581,7 @@
       </c>
       <c r="E1" s="11">
         <f>SUM(B:B)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -629,23 +638,18 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -671,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -685,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="3">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
@@ -717,18 +721,40 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwecko/Scripts/Assymble_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40167EC0-016D-314B-B1C3-BFCC7834F11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514C244F-8176-154E-9363-F3E4E21F82D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="5060" windowWidth="27560" windowHeight="14960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="5060" windowWidth="27560" windowHeight="14960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questoes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
   <si>
     <t>TIPO</t>
   </si>
@@ -552,7 +552,7 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -883,8 +883,8 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1052,23 +1052,45 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwecko/Scripts/Assymble_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwecko/Scripts/Assymble_test/TestGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514C244F-8176-154E-9363-F3E4E21F82D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B707C7C0-03CD-294A-9C81-733F43D8A1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="5060" windowWidth="27560" windowHeight="14960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="5060" windowWidth="27560" windowHeight="14960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questoes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
   <si>
     <t>TIPO</t>
   </si>
@@ -48,12 +48,6 @@
     <t>discursiva</t>
   </si>
   <si>
-    <t>coluna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relacione a primeira coluna com a segunda: </t>
-  </si>
-  <si>
     <t>C: Coluna 1</t>
   </si>
   <si>
@@ -148,6 +142,18 @@
   </si>
   <si>
     <t>EEEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione a primeira coluna com a segunda (onde o texto da 1 coluna é maior que o da 2): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione a primeira coluna com a segunda (onde o texto da 2 coluna é maior que o da 1): </t>
+  </si>
+  <si>
+    <t>coluna01</t>
+  </si>
+  <si>
+    <t>coluna02</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -218,24 +224,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -244,6 +238,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,326 +571,368 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="11">
+      <c r="D1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="7">
         <f>SUM(B:B)</f>
-        <v>4</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="9">
         <v>0.5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="M4" s="8"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5">
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -881,328 +944,371 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" s="11" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="G5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B6" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="K7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
